--- a/results/I1_S5_mean_res.xlsx
+++ b/results/I1_S5_mean_res.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\wm-stochastic\results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF84554-FDA3-47E8-8FBD-DB482ED29DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="3360" yWindow="2085" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId1"/>
@@ -18,7 +24,7 @@
     <sheet name="rho" sheetId="9" r:id="rId9"/>
     <sheet name="alpha" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -58,53 +64,53 @@
     <t>Z5</t>
   </si>
   <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>TBar</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>rho</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
     <t>I1_S5_mean</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>TBar</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>rho</t>
-  </si>
-  <si>
-    <t>alpha</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,17 +169,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -211,7 +225,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -245,6 +259,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -279,9 +294,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -454,14 +470,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,76 +487,76 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>12541.91320981416</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>66.292223993766754</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>300.0199999809265</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>41.833999872207642</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>78.11408966645448</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>66.292223993766754</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>60.29078983862903</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8">
-        <v>17.8232493102224</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9">
-        <v>11106.26666067611</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10">
-        <v>1400</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -547,55 +565,22 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>0.9999950173336654</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -604,146 +589,146 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>0.9999950201104716</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>0.9999950200079079</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
@@ -751,15 +736,15 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>0.999995021841241</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
       <c r="B14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -771,25 +756,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -800,40 +785,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -844,18 +829,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -866,7 +851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -877,7 +862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -888,18 +873,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -910,7 +895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -921,7 +906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -938,22 +923,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -961,7 +946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -969,79 +954,79 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>25.66140575762148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>32.716210595664478</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.95898527594862</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>36.757225319715857</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.95575480312057</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>32.312249986485028</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>36.98099133308861</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.33623009050933</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>40.235275453921822</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>32.37108153774135</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>30.600333240792139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>34.71361093483237</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>35.59984291189355</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>35.59984574594651</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>32.611924650596819</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1049,7 +1034,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1057,7 +1042,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1071,165 +1056,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0.9999950165760895</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0.9999950165760896</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>13</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>0.9999950186269552</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>8</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1238,25 +1083,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1267,7 +1112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1275,10 +1120,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>232.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>38.200000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1286,10 +1131,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>245.5605104902453</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>71.08</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1297,10 +1142,10 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>109.9699999999993</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>100.736</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1308,10 +1153,10 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>115.8399999999974</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>68.253999999999991</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1319,10 +1164,10 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>385.8289241652107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>33.548000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1330,10 +1175,10 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>124.05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>140.05199999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1341,10 +1186,10 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>274.5599999999831</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>73.475999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1352,10 +1197,10 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>480.9705104902451</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>31.463999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1363,10 +1208,10 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>423.8299999999836</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>139.702</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1374,10 +1219,10 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>345.0205104902444</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>105.974</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1385,10 +1230,10 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>480.9705104902451</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>68.253999999999991</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1396,10 +1241,10 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>385.8289241652107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>140.05199999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1407,7 +1252,7 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>423.8272314121552</v>
+        <v>139.702</v>
       </c>
     </row>
   </sheetData>
@@ -1416,25 +1261,25 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>11</v>
       </c>
@@ -1442,10 +1287,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>420.9705104902451</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>12</v>
       </c>
@@ -1453,10 +1298,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>325.8289241652107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>13</v>
       </c>
@@ -1464,7 +1309,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>363.8272314121552</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1473,25 +1318,25 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1502,7 +1347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1510,10 +1355,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1521,10 +1366,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1532,10 +1377,10 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1546,7 +1391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1554,10 +1399,10 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1568,7 +1413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1579,7 +1424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1590,7 +1435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1598,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1607,132 +1452,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/results/I1_S5_mean_res.xlsx
+++ b/results/I1_S5_mean_res.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\wm-stochastic\results\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF84554-FDA3-47E8-8FBD-DB482ED29DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="2085" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId1"/>
@@ -24,7 +18,7 @@
     <sheet name="rho" sheetId="9" r:id="rId9"/>
     <sheet name="alpha" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -64,6 +58,9 @@
     <t>Z5</t>
   </si>
   <si>
+    <t>I1_S5_mean</t>
+  </si>
+  <si>
     <t>i</t>
   </si>
   <si>
@@ -101,16 +98,13 @@
   </si>
   <si>
     <t>alpha</t>
-  </si>
-  <si>
-    <t>I1_S5_mean</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,25 +163,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -225,7 +211,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -259,7 +245,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -294,10 +279,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -470,16 +454,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,31 +469,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>66.292223993766754</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>66.29222399376675</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>41.833999872207642</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>39.44099998474121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -519,15 +501,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>66.292223993766754</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>66.29222399376675</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -535,7 +517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -543,7 +525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -551,7 +533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -565,22 +547,22 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -589,25 +571,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -618,7 +600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -629,7 +611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -640,7 +622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -651,7 +633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -662,7 +644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -673,18 +655,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>5</v>
       </c>
@@ -695,18 +677,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>7</v>
       </c>
@@ -717,7 +699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>8</v>
       </c>
@@ -728,18 +710,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>9</v>
       </c>
       <c r="B13">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>10</v>
       </c>
@@ -756,25 +738,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -785,7 +767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -796,7 +778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -807,7 +789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -818,7 +800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -829,7 +811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -840,7 +822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -851,7 +833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -862,7 +844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -873,7 +855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -884,7 +866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -895,7 +877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -906,7 +888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -923,22 +905,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -946,7 +928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -954,31 +936,31 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>32.716210595664478</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>32.71621059566448</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>36.757225319715857</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>36.75722531971586</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>32.312249986485028</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>32.31224998648503</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -986,23 +968,23 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>40.235275453921822</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>40.23527545392182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.600333240792139</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>30.60033324079214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1010,7 +992,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1018,15 +1000,15 @@
         <v>35.59984574594651</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.611924650596819</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>32.61192465059682</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1034,7 +1016,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1042,7 +1024,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1056,25 +1038,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1083,25 +1065,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1112,7 +1094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1120,10 +1102,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>38.200000000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>38.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1134,7 +1116,7 @@
         <v>71.08</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1145,7 +1127,7 @@
         <v>100.736</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1153,10 +1135,10 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>68.253999999999991</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68.25399999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1164,10 +1146,10 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>33.548000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>33.548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1175,10 +1157,10 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>140.05199999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>140.052</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1186,10 +1168,10 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>73.475999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>73.476</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1197,10 +1179,10 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>31.463999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>31.464</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1211,7 +1193,7 @@
         <v>139.702</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1222,7 +1204,7 @@
         <v>105.974</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1230,10 +1212,10 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>68.253999999999991</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>139.702</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1241,10 +1223,10 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>140.05199999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68.25399999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1252,7 +1234,7 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>139.702</v>
+        <v>140.052</v>
       </c>
     </row>
   </sheetData>
@@ -1261,25 +1243,25 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>11</v>
       </c>
@@ -1290,7 +1272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>12</v>
       </c>
@@ -1301,7 +1283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>13</v>
       </c>
@@ -1318,25 +1300,25 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1347,7 +1329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1358,7 +1340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1369,7 +1351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1380,7 +1362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1391,7 +1373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1402,7 +1384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1413,7 +1395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1424,7 +1406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1435,7 +1417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1452,22 +1434,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
